--- a/需求池.xlsx
+++ b/需求池.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA08D1A-6842-46A8-B324-3CE9DAC3906D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237260EF-4EF3-412E-9F38-7D8639E0FCB8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
   <si>
     <t>需求名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,38 @@
   </si>
   <si>
     <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递简历历史记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试记录，包括已面试和未面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高简历曝光度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升简历呗hr看到的几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1349,13 +1381,76 @@
         <v>68</v>
       </c>
     </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44068</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44068</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44068</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="B19:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
